--- a/biology/Botanique/Jardin_botanique_de_Curitiba/Jardin_botanique_de_Curitiba.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Curitiba/Jardin_botanique_de_Curitiba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin botanique de Curitiba (o Jardim botânico de Curitiba en portugais) ou Jardim Botânico Francisca Maria Garfunkel se situe dans le Jardim Botânico district de la ville de Curitiba, État du Paraná, au région Sud du Brésil. Il est l'un des principaux symboles touristiques de la ville - en 2007, il a été l'endroit le plus choisi lors d'une élection en ligne pour choisir les "Sept Merveilles du Brésil" - et abrite une partie du campus de l'université fédérale du Paraná.
